--- a/django_master_converter/master/Masters.xlsx
+++ b/django_master_converter/master/Masters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VGD-akigumo\Desktop\Django_Master_Converter\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiki\Desktop\Django_Master_Converter\django_master_converter\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E01C6B-CBA9-4B1A-8D46-9E2A2EA473B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2DB4AE-9391-46D9-962C-4116CC6241EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="735" windowWidth="20985" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="1845" windowWidth="26865" windowHeight="18375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelMaster" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>SchemaType</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>name</t>
@@ -128,52 +125,6 @@
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2001/1/20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0.001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1000</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -181,6 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,6 +224,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -578,7 +533,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,39 +545,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -630,103 +585,32 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="E8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -754,39 +638,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -794,16 +678,16 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -811,16 +695,16 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -923,12 +807,12 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
